--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_18-07.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_18-07.xlsx
@@ -317,19 +317,22 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
   </si>
   <si>
+    <t>XORIN 1GM VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>ZOVIRAX 400MG 10 TAB.</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>5:0</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -2761,11 +2764,11 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2807,17 +2810,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2825,7 +2828,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2833,13 +2836,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2859,13 +2862,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2877,7 +2880,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2885,13 +2888,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2911,17 +2914,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>112</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2929,7 +2932,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2937,17 +2940,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>42</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2955,7 +2958,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2963,17 +2966,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2981,7 +2984,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2989,13 +2992,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3007,7 +3010,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3015,51 +3018,77 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="K84" s="10">
-        <v>4942.2700000000004</v>
-      </c>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="11">
+    <row r="84" ht="24.75" customHeight="1">
+      <c r="A84" s="6">
+        <v>81</v>
+      </c>
+      <c t="s" r="B84" s="7">
         <v>120</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c t="s" r="F85" s="12">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c t="s" r="H84" s="8">
+        <v>105</v>
+      </c>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="9">
+        <v>24</v>
+      </c>
+      <c r="M84" s="9"/>
+      <c t="s" r="N84" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" ht="26.25" customHeight="1">
+      <c r="K85" s="10">
+        <v>5119.2700000000004</v>
+      </c>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="11">
         <v>121</v>
       </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="13"/>
-      <c t="s" r="I85" s="14">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c t="s" r="F86" s="12">
         <v>122</v>
       </c>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="13"/>
+      <c t="s" r="I86" s="14">
+        <v>123</v>
+      </c>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="251">
+  <mergeCells count="254">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3307,10 +3336,13 @@
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="I85:N85"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="I86:N86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
